--- a/Implementation_Results/Accurate_Results/Accurate_Results.xlsx
+++ b/Implementation_Results/Accurate_Results/Accurate_Results.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s3081701\Documents\Diplomarbeit\Git-Repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s3081701\Documents\Diplomarbeit\Git-Repo\Implementation_Results\Accurate_Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="kintex_RESULT_ALL" sheetId="1" r:id="rId1"/>
-    <sheet name="Graphs" sheetId="2" r:id="rId2"/>
+    <sheet name="RESULT_ALL" sheetId="1" r:id="rId1"/>
+    <sheet name="Adder_Charts" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">kintex_RESULT_ALL!$A$1:$I$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RESULT_ALL!$A$1:$I$37</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -667,7 +667,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$2</c:f>
+              <c:f>RESULT_ALL!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -691,7 +691,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$2:$B$5</c:f>
+              <c:f>RESULT_ALL!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -712,7 +712,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$C$2:$C$5</c:f>
+              <c:f>RESULT_ALL!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -743,7 +743,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$6</c:f>
+              <c:f>RESULT_ALL!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -767,7 +767,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$6:$B$9</c:f>
+              <c:f>RESULT_ALL!$B$6:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -788,7 +788,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$C$6:$C$9</c:f>
+              <c:f>RESULT_ALL!$C$6:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -819,7 +819,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$10</c:f>
+              <c:f>RESULT_ALL!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -843,7 +843,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$10:$B$13</c:f>
+              <c:f>RESULT_ALL!$B$10:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -864,7 +864,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$C$10:$C$13</c:f>
+              <c:f>RESULT_ALL!$C$10:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -895,7 +895,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$14</c:f>
+              <c:f>RESULT_ALL!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -918,7 +918,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$14:$B$17</c:f>
+              <c:f>RESULT_ALL!$B$14:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -939,7 +939,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$C$14:$C$17</c:f>
+              <c:f>RESULT_ALL!$C$14:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -970,7 +970,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$18</c:f>
+              <c:f>RESULT_ALL!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -993,7 +993,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$18:$B$21</c:f>
+              <c:f>RESULT_ALL!$B$18:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1014,7 +1014,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$C$18:$C$21</c:f>
+              <c:f>RESULT_ALL!$C$18:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1045,7 +1045,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$22</c:f>
+              <c:f>RESULT_ALL!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1068,7 +1068,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$22:$B$25</c:f>
+              <c:f>RESULT_ALL!$B$22:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1089,7 +1089,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$C$22:$C$25</c:f>
+              <c:f>RESULT_ALL!$C$22:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1120,7 +1120,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$26</c:f>
+              <c:f>RESULT_ALL!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1145,7 +1145,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$26:$B$29</c:f>
+              <c:f>RESULT_ALL!$B$26:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1166,7 +1166,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$C$26:$C$29</c:f>
+              <c:f>RESULT_ALL!$C$26:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1197,7 +1197,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$30</c:f>
+              <c:f>RESULT_ALL!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1222,7 +1222,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$30:$B$33</c:f>
+              <c:f>RESULT_ALL!$B$30:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1243,7 +1243,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$C$30:$C$33</c:f>
+              <c:f>RESULT_ALL!$C$30:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1274,7 +1274,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$34</c:f>
+              <c:f>RESULT_ALL!$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1299,7 +1299,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$34:$B$37</c:f>
+              <c:f>RESULT_ALL!$B$34:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1320,7 +1320,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$C$34:$C$37</c:f>
+              <c:f>RESULT_ALL!$C$34:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1718,7 +1718,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$2</c:f>
+              <c:f>RESULT_ALL!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1740,7 +1740,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$2:$B$5</c:f>
+              <c:f>RESULT_ALL!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1761,7 +1761,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$D$2:$D$5</c:f>
+              <c:f>RESULT_ALL!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1791,7 +1791,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$6</c:f>
+              <c:f>RESULT_ALL!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1813,7 +1813,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$6:$B$9</c:f>
+              <c:f>RESULT_ALL!$B$6:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1834,7 +1834,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$D$6:$D$9</c:f>
+              <c:f>RESULT_ALL!$D$6:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1864,7 +1864,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$10</c:f>
+              <c:f>RESULT_ALL!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1886,7 +1886,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$10:$B$13</c:f>
+              <c:f>RESULT_ALL!$B$10:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1907,7 +1907,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$D$10:$D$13</c:f>
+              <c:f>RESULT_ALL!$D$10:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1937,7 +1937,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$14</c:f>
+              <c:f>RESULT_ALL!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1958,7 +1958,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$14:$B$17</c:f>
+              <c:f>RESULT_ALL!$B$14:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1979,7 +1979,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$D$14:$D$17</c:f>
+              <c:f>RESULT_ALL!$D$14:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2009,7 +2009,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$18</c:f>
+              <c:f>RESULT_ALL!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2030,7 +2030,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$18:$B$21</c:f>
+              <c:f>RESULT_ALL!$B$18:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2051,7 +2051,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$D$18:$D$21</c:f>
+              <c:f>RESULT_ALL!$D$18:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2081,7 +2081,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$22</c:f>
+              <c:f>RESULT_ALL!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2103,7 +2103,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$22:$B$25</c:f>
+              <c:f>RESULT_ALL!$B$22:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2124,7 +2124,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$D$22:$D$25</c:f>
+              <c:f>RESULT_ALL!$D$22:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2154,7 +2154,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$26</c:f>
+              <c:f>RESULT_ALL!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2177,7 +2177,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$26:$B$29</c:f>
+              <c:f>RESULT_ALL!$B$26:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2198,7 +2198,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$D$26:$D$29</c:f>
+              <c:f>RESULT_ALL!$D$26:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2228,7 +2228,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$30</c:f>
+              <c:f>RESULT_ALL!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2251,7 +2251,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$30:$B$33</c:f>
+              <c:f>RESULT_ALL!$B$30:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2272,7 +2272,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$D$30:$D$33</c:f>
+              <c:f>RESULT_ALL!$D$30:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2302,7 +2302,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$34</c:f>
+              <c:f>RESULT_ALL!$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2325,7 +2325,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$34:$B$37</c:f>
+              <c:f>RESULT_ALL!$B$34:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2346,7 +2346,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$D$34:$D$37</c:f>
+              <c:f>RESULT_ALL!$D$34:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2746,7 +2746,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$2</c:f>
+              <c:f>RESULT_ALL!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2768,7 +2768,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$2:$B$5</c:f>
+              <c:f>RESULT_ALL!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2789,7 +2789,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$F$2:$F$5</c:f>
+              <c:f>RESULT_ALL!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2819,7 +2819,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$6</c:f>
+              <c:f>RESULT_ALL!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2841,7 +2841,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$6:$B$9</c:f>
+              <c:f>RESULT_ALL!$B$6:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2862,7 +2862,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$F$6:$F$9</c:f>
+              <c:f>RESULT_ALL!$F$6:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2892,7 +2892,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$10</c:f>
+              <c:f>RESULT_ALL!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2914,7 +2914,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$10:$B$13</c:f>
+              <c:f>RESULT_ALL!$B$10:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2935,7 +2935,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$F$10:$F$13</c:f>
+              <c:f>RESULT_ALL!$F$10:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2965,7 +2965,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$14</c:f>
+              <c:f>RESULT_ALL!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2986,7 +2986,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$14:$B$17</c:f>
+              <c:f>RESULT_ALL!$B$14:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3007,7 +3007,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$F$14:$F$17</c:f>
+              <c:f>RESULT_ALL!$F$14:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3037,7 +3037,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$18</c:f>
+              <c:f>RESULT_ALL!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3058,7 +3058,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$18:$B$21</c:f>
+              <c:f>RESULT_ALL!$B$18:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3079,7 +3079,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$F$18:$F$21</c:f>
+              <c:f>RESULT_ALL!$F$18:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3109,7 +3109,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$22</c:f>
+              <c:f>RESULT_ALL!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3130,7 +3130,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$22:$B$25</c:f>
+              <c:f>RESULT_ALL!$B$22:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3151,7 +3151,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$F$22:$F$25</c:f>
+              <c:f>RESULT_ALL!$F$22:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3181,7 +3181,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$26</c:f>
+              <c:f>RESULT_ALL!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3204,7 +3204,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$26:$B$29</c:f>
+              <c:f>RESULT_ALL!$B$26:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3225,7 +3225,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$F$26:$F$29</c:f>
+              <c:f>RESULT_ALL!$F$26:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3255,7 +3255,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$30</c:f>
+              <c:f>RESULT_ALL!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3278,7 +3278,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$30:$B$33</c:f>
+              <c:f>RESULT_ALL!$B$30:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3299,7 +3299,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$F$30:$F$33</c:f>
+              <c:f>RESULT_ALL!$F$30:$F$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3329,7 +3329,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$34</c:f>
+              <c:f>RESULT_ALL!$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3352,7 +3352,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$34:$B$37</c:f>
+              <c:f>RESULT_ALL!$B$34:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3373,7 +3373,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>kintex_RESULT_ALL!$F$34:$F$37</c:f>
+              <c:f>RESULT_ALL!$F$34:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5771,7 +5771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -7074,7 +7074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
